--- a/5不到达地址维护/key.xlsx
+++ b/5不到达地址维护/key.xlsx
@@ -51,8 +51,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -68,6 +68,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,7 +124,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -125,24 +156,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,60 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,49 +230,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,127 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +415,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,21 +445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -466,11 +460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,17 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -515,153 +504,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -1050,8 +1050,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>

--- a/5不到达地址维护/key.xlsx
+++ b/5不到达地址维护/key.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="31920" windowHeight="14720"/>
+    <workbookView windowHeight="15200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -49,10 +49,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -78,6 +78,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -86,7 +101,85 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,68 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -179,37 +210,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,31 +431,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,21 +452,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -505,6 +466,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -515,150 +491,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1032,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="3:3">
@@ -1050,7 +1050,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36:C44"/>
     </sheetView>
   </sheetViews>

--- a/5不到达地址维护/key.xlsx
+++ b/5不到达地址维护/key.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15200"/>
+    <workbookView windowHeight="14960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -72,27 +72,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -100,6 +171,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -107,17 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,23 +201,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -155,61 +208,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,20 +418,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,6 +448,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -462,21 +483,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,17 +507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,148 +520,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:C44"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>

--- a/5不到达地址维护/key.xlsx
+++ b/5不到达地址维护/key.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="14960"/>
+    <workbookView windowWidth="32100" windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,10 +49,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -72,6 +72,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -79,7 +109,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,128 +214,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -224,91 +224,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,91 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +415,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,30 +507,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -497,171 +515,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1032,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="3:3">
